--- a/Data_Files/Logs/10 tan - Affect Trend.xlsx
+++ b/Data_Files/Logs/10 tan - Affect Trend.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="10 tan - Affect Trend" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>BV</t>
   </si>
@@ -53,13 +53,122 @@
   <si>
     <t>AvgA</t>
   </si>
+  <si>
+    <t>VV Read</t>
+  </si>
+  <si>
+    <t>VA Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State Date Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FSM State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FSM State Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Emotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Observable Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> morningIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> morningGood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askWeather</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askWeatherBad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askWeatherBadParis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askWeatherBadDiffHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askWeatherBadDiffHomeYesTake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkEdgeSafety1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askBreakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askBreakfastAte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietPoultry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietPoultryYesEat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietGluten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietGlutenYesEat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meal2DecideLunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mealFeedbackLunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meal2FeedbackYesDelici</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> askDietFishYesEat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkEdgeSafety2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meal3DecideDinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meal3FeedbackDinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meal3FeedbackYesGood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exerciseDecide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exerciseWeatherBad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exerciseFeedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exerciseFeedbackGood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> morningEnd</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="173" formatCode="mm:ss;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -538,11 +647,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -588,7 +698,32 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="173" formatCode="mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -622,7 +757,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -635,9 +770,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>User 10 Valance</a:t>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>User 10 Valence</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -655,7 +795,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -674,8 +814,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -692,25 +832,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -987,8 +1137,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$C$2:$C$93</c:f>
               <c:numCache>
@@ -1272,7 +1422,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1280,7 +1430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10 tan - Affect Trend'!$E$1</c:f>
+              <c:f>'10 tan - Affect Trend'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1290,25 +1440,33 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -1585,18 +1743,18 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'10 tan - Affect Trend'!$E$2:$E$93</c:f>
+              <c:f>'10 tan - Affect Trend'!$G$2:$G$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
@@ -1617,16 +1775,16 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-2</c:v>
@@ -1638,10 +1796,10 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-2</c:v>
@@ -1653,46 +1811,46 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-2</c:v>
@@ -1701,16 +1859,16 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-2</c:v>
@@ -1719,28 +1877,28 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-2</c:v>
@@ -1755,82 +1913,82 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-1</c:v>
@@ -1842,10 +2000,10 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-2</c:v>
@@ -1854,13 +2012,13 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-1</c:v>
@@ -1870,7 +2028,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1878,7 +2036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10 tan - Affect Trend'!$G$1</c:f>
+              <c:f>'10 tan - Affect Trend'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,7 +2046,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
@@ -1899,16 +2057,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -2185,10 +2351,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'10 tan - Affect Trend'!$G$2:$G$93</c:f>
+              <c:f>'10 tan - Affect Trend'!$I$2:$I$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
@@ -2470,7 +2636,616 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 tan - Affect Trend'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AvgV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9930556744802743E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2394676014082506E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8734953482635319E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5275463121943176E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1584490352543071E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8462962846970186E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4888888522982597E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1197916481178254E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7708333487389609E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0371296302764677E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.096990738005843E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.163171291409526E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2272337917238474E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2913888858747669E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3516203689505346E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4117592581897043E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4761458296561614E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5404976802528836E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6048032412072644E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6649652752676047E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7248148142243735E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7900694438139908E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8501736121834256E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9152314780512825E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.975405088160187E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0352083301986568E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0996527746319771E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1597106460831128E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2197222206159495E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2799305515945889E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3399074052576907E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4039351847022772E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4639236071379855E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.527951386582572E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5925000009010546E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6526504589128308E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7123611071147025E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7722569429897703E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8319444463704713E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8957407412235625E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9597800894407555E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0197106461855583E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0796759238000959E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1414467594004236E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2015740725910291E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2674999965820462E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3298148118774407E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3896180539159104E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4496412044973113E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5136342557962053E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5779282407020219E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6424421268748119E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7066666627652012E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7669675948563963E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8289467556751333E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8892939774086699E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9533449089503847E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0135185190592892E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0735879592830315E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1337615693919361E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1977083310484886E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2578356442390941E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3177546249353327E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3776157399406657E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.4427661996451207E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5029050888842903E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.5668981474591419E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.6270601815194823E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.687071756052319E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7473263839492574E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.8114236124092713E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.871307872235775E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9358217584085651E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9957407391048037E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0557175927679054E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1194444458815269E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1798842614516616E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2400578715605661E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3001041669631377E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3664120350731537E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4321527786669321E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4963194415904582E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5563078713021241E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.6161921311286278E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6811689792084508E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7453009212622419E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.8071874955203384E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.8714236074592918E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9332523160264827E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.2075115711195394E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.5840624956763349E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$L$2:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.91304347826086951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2481,28 +3256,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1601430368"/>
-        <c:axId val="-1601430912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1601430368"/>
+        <c:axId val="-1023563712"/>
+        <c:axId val="-1023562624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1023563712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.5900000000000021E-3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2510,7 +3300,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2529,15 +3319,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1601430912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossAx val="-1023562624"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-1601430912"/>
+        <c:axId val="-1023562624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2565,8 +3353,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2590,11 +3384,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1601430368"/>
+        <c:crossAx val="-1023563712"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2694,7 +3486,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2707,9 +3499,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>User 10 Arousal</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2727,7 +3524,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2746,8 +3543,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2764,25 +3561,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -3059,8 +3866,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$D$2:$D$93</c:f>
               <c:numCache>
@@ -3344,7 +4151,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -3352,7 +4159,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10 tan - Affect Trend'!$F$1</c:f>
+              <c:f>'10 tan - Affect Trend'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3362,25 +4169,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -3657,18 +4474,18 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'10 tan - Affect Trend'!$F$2:$F$93</c:f>
+              <c:f>'10 tan - Affect Trend'!$H$2:$H$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3689,16 +4506,16 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-1</c:v>
@@ -3710,10 +4527,10 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -3725,46 +4542,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1</c:v>
@@ -3773,16 +4590,16 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1</c:v>
@@ -3791,28 +4608,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-2</c:v>
@@ -3827,82 +4644,82 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-2</c:v>
@@ -3914,10 +4731,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-1</c:v>
@@ -3926,13 +4743,13 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-2</c:v>
@@ -3942,7 +4759,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -3950,7 +4767,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10 tan - Affect Trend'!$H$1</c:f>
+              <c:f>'10 tan - Affect Trend'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3960,7 +4777,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
@@ -3971,16 +4788,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -4257,10 +5082,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'10 tan - Affect Trend'!$H$2:$H$93</c:f>
+              <c:f>'10 tan - Affect Trend'!$J$2:$J$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
@@ -4542,7 +5367,616 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 tan - Affect Trend'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AvgA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$B$2:$B$93</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
+                  <c:v>0.20729355324147036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9930556744802743E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2394676014082506E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8734953482635319E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5275463121943176E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1584490352543071E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8462962846970186E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4888888522982597E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1197916481178254E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7708333487389609E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0371296302764677E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.096990738005843E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.163171291409526E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2272337917238474E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2913888858747669E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3516203689505346E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4117592581897043E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4761458296561614E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5404976802528836E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6048032412072644E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6649652752676047E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7248148142243735E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7900694438139908E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8501736121834256E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9152314780512825E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.975405088160187E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0352083301986568E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0996527746319771E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1597106460831128E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2197222206159495E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2799305515945889E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3399074052576907E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4039351847022772E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4639236071379855E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.527951386582572E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5925000009010546E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6526504589128308E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7123611071147025E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7722569429897703E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8319444463704713E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8957407412235625E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9597800894407555E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0197106461855583E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0796759238000959E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1414467594004236E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2015740725910291E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2674999965820462E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3298148118774407E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3896180539159104E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4496412044973113E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5136342557962053E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5779282407020219E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6424421268748119E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7066666627652012E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7669675948563963E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8289467556751333E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8892939774086699E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9533449089503847E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0135185190592892E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0735879592830315E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1337615693919361E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1977083310484886E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2578356442390941E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3177546249353327E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3776157399406657E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.4427661996451207E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5029050888842903E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.5668981474591419E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.6270601815194823E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.687071756052319E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7473263839492574E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.8114236124092713E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.871307872235775E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9358217584085651E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9957407391048037E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0557175927679054E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1194444458815269E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1798842614516616E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2400578715605661E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3001041669631377E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3664120350731537E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4321527786669321E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4963194415904582E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5563078713021241E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.6161921311286278E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6811689792084508E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7453009212622419E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.8071874955203384E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.8714236074592918E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9332523160264827E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.2075115711195394E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.5840624956763349E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$M$2:$M$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4553,28 +5987,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1603761536"/>
-        <c:axId val="-1603773504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1603761536"/>
+        <c:axId val="-1023905056"/>
+        <c:axId val="-1023904512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1023905056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.5900000000000021E-3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4582,7 +6031,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4601,15 +6050,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1603773504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossAx val="-1023904512"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-1603773504"/>
+        <c:axId val="-1023904512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4637,8 +6084,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4662,11 +6115,767 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1603761536"/>
+        <c:crossAx val="-1023905056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>User 10 Robot Variables</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 tan - Affect Trend'!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Robot Emotion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$AF$2:$AF$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss;@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.423611113083704E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4699074056503984E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6435185209653961E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7013888903117428E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0370370368861281E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3495370371771664E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3726851834605135E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4884259221532069E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8472222222868972E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9166666684128963E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.194444445640935E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2291666687039346E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4143518535226271E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4490740765856266E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6342592614043191E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8773148155693583E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9236111081360527E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.085648146671398E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1898148158603966E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3055555545530901E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4791666625921302E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7337962935368218E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7685185165998213E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8032407396628209E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9074074088518195E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2199074091428578E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6018518482839376E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6597222249062419E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$AI$2:$AI$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 tan - Affect Trend'!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Observable Expression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$AF$2:$AF$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss;@</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.423611113083704E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4699074056503984E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6435185209653961E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7013888903117428E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0370370368861281E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3495370371771664E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3726851834605135E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4884259221532069E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8472222222868972E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9166666684128963E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.194444445640935E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2291666687039346E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4143518535226271E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4490740765856266E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6342592614043191E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8773148155693583E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9236111081360527E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.085648146671398E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1898148158603966E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3055555545530901E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4791666625921302E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7337962935368218E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7685185165998213E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8032407396628209E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9074074088518195E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2199074091428578E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6018518482839376E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6597222249062419E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10 tan - Affect Trend'!$AJ$2:$AJ$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1065456960"/>
+        <c:axId val="-1065456416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1065456960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5900000000000021E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1065456416"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1065456416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1065456960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4825,8 +7034,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4853,8 +7102,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4934,11 +7183,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4949,11 +7193,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4965,7 +7204,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4985,9 +7224,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5000,10 +7236,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5043,22 +7279,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5163,8 +7400,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5296,19 +7533,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5322,6 +7560,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5342,7 +7591,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5369,8 +7618,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5450,11 +7699,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5465,11 +7709,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5481,7 +7720,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5501,9 +7740,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5516,10 +7752,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5559,22 +7795,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5679,8 +7916,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5812,19 +8049,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5838,6 +8076,533 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5861,20 +8626,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5893,20 +8658,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5923,7 +8688,88 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M93" totalsRowShown="0">
+  <autoFilter ref="A1:M93"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Absolute Time" dataDxfId="7"/>
+    <tableColumn id="2" name="Time " dataDxfId="2">
+      <calculatedColumnFormula>A2-A$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="BV"/>
+    <tableColumn id="4" name="BA"/>
+    <tableColumn id="5" name="VV Read"/>
+    <tableColumn id="6" name="VA Read"/>
+    <tableColumn id="13" name="VV" dataDxfId="4">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="VA" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="MV"/>
+    <tableColumn id="8" name="MA"/>
+    <tableColumn id="9" name="Used Voice"/>
+    <tableColumn id="10" name="AvgV" dataDxfId="6">
+      <calculatedColumnFormula>AVERAGE(Table1[MV])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="AvgA" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE(Table1[MA])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="AE1:AJ30" totalsRowShown="0">
+  <autoFilter ref="AE1:AJ30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name=" State Date Time" dataDxfId="1"/>
+    <tableColumn id="2" name="Time" dataDxfId="0">
+      <calculatedColumnFormula>AE2-AE$2 + TIME(0,1,30)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name=" FSM State"/>
+    <tableColumn id="4" name=" FSM State Name"/>
+    <tableColumn id="5" name=" Robot Emotion"/>
+    <tableColumn id="6" name=" Observable Expression"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6189,20 +9035,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:AJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.77734375" customWidth="1"/>
+    <col min="34" max="34" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16" customWidth="1"/>
+    <col min="36" max="36" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6216,34 +9068,58 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
+      <c r="AE1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42411.692293553242</v>
       </c>
-      <c r="B2" s="3">
-        <f>A2-A$2</f>
-        <v>0</v>
+      <c r="B2" s="2">
+        <f>A2-AE$2</f>
+        <v>0.20729355324147036</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6257,18 +9133,53 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1"/>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="AE2" s="2">
+        <v>42411.485000000001</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" ref="AF2:AF30" si="0">AE2-AE$2 + TIME(0,1,30)</f>
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42411.692353483799</v>
       </c>
@@ -6288,23 +9199,58 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="AE3" s="2">
+        <v>42411.485381944447</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.423611113083704E-3</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42411.692417500002</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B67" si="0">A4-A$2</f>
+        <f t="shared" ref="B4:B67" si="1">A4-A$2</f>
         <v>1.2394676014082506E-4</v>
       </c>
       <c r="C4">
@@ -6320,22 +9266,57 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H4">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="L4">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="AE4" s="2">
+        <v>42411.48542824074</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4699074056503984E-3</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42411.692480902777</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8734953482635319E-4</v>
       </c>
       <c r="C5">
@@ -6351,22 +9332,57 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="H5">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="L5">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="AE5" s="2">
+        <v>42411.485601851855</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6435185209653961E-3</v>
+      </c>
+      <c r="AG5">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42411.692546307873</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5275463121943176E-4</v>
       </c>
       <c r="C6">
@@ -6382,22 +9398,57 @@
         <v>2</v>
       </c>
       <c r="G6">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="L6">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="AE6" s="2">
+        <v>42411.485659722224</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7013888903117428E-3</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>42411.692609398146</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1584490352543071E-4</v>
       </c>
       <c r="C7">
@@ -6413,22 +9464,57 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H7">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="L7">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="AE7" s="2">
+        <v>42411.485995370371</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0370370368861281E-3</v>
+      </c>
+      <c r="AG7">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42411.693078182871</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8462962846970186E-4</v>
       </c>
       <c r="C8">
@@ -6444,22 +9530,57 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>0</v>
       </c>
       <c r="H8">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="AE8" s="2">
+        <v>42411.486307870371</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3495370371771664E-3</v>
+      </c>
+      <c r="AG8">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>42411.693142442127</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4888888522982597E-4</v>
       </c>
       <c r="C9">
@@ -6475,53 +9596,123 @@
         <v>-2</v>
       </c>
       <c r="G9">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="L9">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="AE9" s="2">
+        <v>42411.486331018517</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3726851834605135E-3</v>
+      </c>
+      <c r="AG9">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42411.693205532407</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1197916481178254E-4</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="AE10" s="2">
+        <v>42411.486446759256</v>
+      </c>
+      <c r="AF10" s="4">
         <f t="shared" si="0"/>
-        <v>9.1197916481178254E-4</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>2.4884259221532069E-3</v>
+      </c>
+      <c r="AG10">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42411.693270636577</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7708333487389609E-4</v>
       </c>
       <c r="C11">
@@ -6537,84 +9728,189 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="L11">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="AE11" s="2">
+        <v>42411.486805555556</v>
+      </c>
+      <c r="AF11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8472222222868972E-3</v>
+      </c>
+      <c r="AG11">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42411.693330682872</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0371296302764677E-3</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12">
+        <v>-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="AE12" s="2">
+        <v>42411.486875000002</v>
+      </c>
+      <c r="AF12" s="4">
         <f t="shared" si="0"/>
-        <v>1.0371296302764677E-3</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>2.9166666684128963E-3</v>
+      </c>
+      <c r="AG12">
+        <v>22</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42411.69339054398</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.096990738005843E-3</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13">
+        <v>-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="AE13" s="2">
+        <v>42411.48715277778</v>
+      </c>
+      <c r="AF13" s="4">
         <f t="shared" si="0"/>
-        <v>1.096990738005843E-3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>-2</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>3.194444445640935E-3</v>
+      </c>
+      <c r="AG13">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42411.693456724533</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.163171291409526E-3</v>
       </c>
       <c r="C14">
@@ -6630,22 +9926,57 @@
         <v>-1</v>
       </c>
       <c r="G14">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H14">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-1</v>
       </c>
       <c r="I14">
+        <v>-2</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="L14">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="AE14" s="2">
+        <v>42411.487187500003</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2291666687039346E-3</v>
+      </c>
+      <c r="AG14">
+        <v>18</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42411.693520787034</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2272337917238474E-3</v>
       </c>
       <c r="C15">
@@ -6661,22 +9992,57 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H15">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="L15">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="AE15" s="2">
+        <v>42411.487372685187</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4143518535226271E-3</v>
+      </c>
+      <c r="AG15">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42411.693584942128</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2913888858747669E-3</v>
       </c>
       <c r="C16">
@@ -6692,22 +10058,57 @@
         <v>-2</v>
       </c>
       <c r="G16">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H16">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I16">
+        <v>-2</v>
+      </c>
+      <c r="J16">
         <v>-1</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="L16">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="AE16" s="2">
+        <v>42411.487407407411</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4490740765856266E-3</v>
+      </c>
+      <c r="AG16">
+        <v>25</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42411.693645173611</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3516203689505346E-3</v>
       </c>
       <c r="C17">
@@ -6722,23 +10123,58 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="AE17" s="2">
+        <v>42411.487592592595</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6342592614043191E-3</v>
+      </c>
+      <c r="AG17">
+        <v>26</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42411.6937053125</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4117592581897043E-3</v>
       </c>
       <c r="C18">
@@ -6753,23 +10189,58 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>-2</v>
-      </c>
-      <c r="H18">
+      <c r="G18" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18">
+        <v>-2</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1"/>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="AE18" s="2">
+        <v>42411.487835648149</v>
+      </c>
+      <c r="AF18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8773148155693583E-3</v>
+      </c>
+      <c r="AG18">
+        <v>27</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42411.693769699072</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4761458296561614E-3</v>
       </c>
       <c r="C19">
@@ -6785,22 +10256,57 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H19">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>2</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="L19">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="AE19" s="2">
+        <v>42411.487881944442</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9236111081360527E-3</v>
+      </c>
+      <c r="AG19">
+        <v>30</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42411.693834050922</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5404976802528836E-3</v>
       </c>
       <c r="C20">
@@ -6816,22 +10322,57 @@
         <v>-2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H20">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="L20">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="AE20" s="2">
+        <v>42411.488043981481</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="0"/>
+        <v>4.085648146671398E-3</v>
+      </c>
+      <c r="AG20">
+        <v>31</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42411.693898356483</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6048032412072644E-3</v>
       </c>
       <c r="C21">
@@ -6847,22 +10388,57 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H21">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="L21">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="AE21" s="2">
+        <v>42411.48814814815</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1898148158603966E-3</v>
+      </c>
+      <c r="AG21">
+        <v>33</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42411.693958518517</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6649652752676047E-3</v>
       </c>
       <c r="C22">
@@ -6877,23 +10453,58 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1"/>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="AE22" s="2">
+        <v>42411.488263888888</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3055555545530901E-3</v>
+      </c>
+      <c r="AG22">
+        <v>34</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42411.694018368056</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7248148142243735E-3</v>
       </c>
       <c r="C23">
@@ -6908,23 +10519,58 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G23" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1"/>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="AE23" s="2">
+        <v>42411.488437499997</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4791666625921302E-3</v>
+      </c>
+      <c r="AG23">
+        <v>35</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42411.694083622686</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7900694438139908E-3</v>
       </c>
       <c r="C24">
@@ -6940,22 +10586,57 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H24">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="L24">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="AE24" s="2">
+        <v>42411.488692129627</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7337962935368218E-3</v>
+      </c>
+      <c r="AG24">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42411.694143726854</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8501736121834256E-3</v>
       </c>
       <c r="C25">
@@ -6970,23 +10651,58 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="G25" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1"/>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="AE25" s="2">
+        <v>42411.488726851851</v>
+      </c>
+      <c r="AF25" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7685185165998213E-3</v>
+      </c>
+      <c r="AG25">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42411.69420878472</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9152314780512825E-3</v>
       </c>
       <c r="C26">
@@ -7002,53 +10718,123 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>2</v>
       </c>
       <c r="H26">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>-2</v>
+      </c>
+      <c r="J26">
         <v>-1</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="L26">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="AE26" s="2">
+        <v>42411.488761574074</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.8032407396628209E-3</v>
+      </c>
+      <c r="AG26">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42411.69426895833</v>
       </c>
       <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.975405088160187E-3</v>
+      </c>
+      <c r="C27">
+        <v>-2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27">
+        <v>-2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="AE27" s="2">
+        <v>42411.488865740743</v>
+      </c>
+      <c r="AF27" s="4">
         <f t="shared" si="0"/>
-        <v>1.975405088160187E-3</v>
-      </c>
-      <c r="C27">
-        <v>-2</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>-2</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>4.9074074088518195E-3</v>
+      </c>
+      <c r="AG27">
+        <v>42</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AJ27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42411.694328761572</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0352083301986568E-3</v>
       </c>
       <c r="C28">
@@ -7063,23 +10849,58 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G28" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1"/>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="AE28" s="2">
+        <v>42411.489178240743</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2199074091428578E-3</v>
+      </c>
+      <c r="AG28">
+        <v>42</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42411.694393206017</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0996527746319771E-3</v>
       </c>
       <c r="C29">
@@ -7095,22 +10916,57 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H29">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="L29">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="AE29" s="2">
+        <v>42411.489560185182</v>
+      </c>
+      <c r="AF29" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6018518482839376E-3</v>
+      </c>
+      <c r="AG29">
+        <v>43</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42411.694453263888</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1597106460831128E-3</v>
       </c>
       <c r="C30">
@@ -7125,23 +10981,58 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="G30" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1"/>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="AE30" s="2">
+        <v>42411.489618055559</v>
+      </c>
+      <c r="AF30" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6597222249062419E-3</v>
+      </c>
+      <c r="AG30">
+        <v>46</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42411.694513275463</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2197222206159495E-3</v>
       </c>
       <c r="C31">
@@ -7156,23 +11047,39 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="G31" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1"/>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42411.694573483794</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2799305515945889E-3</v>
       </c>
       <c r="C32">
@@ -7187,23 +11094,39 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G32" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1"/>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42411.694633460647</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3399074052576907E-3</v>
       </c>
       <c r="C33">
@@ -7218,23 +11141,39 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="G33" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1"/>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M33">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42411.694697488427</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4039351847022772E-3</v>
       </c>
       <c r="C34">
@@ -7250,22 +11189,38 @@
         <v>-2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H34">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="L34">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42411.694757476849</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4639236071379855E-3</v>
       </c>
       <c r="C35">
@@ -7280,23 +11235,39 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="G35" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1"/>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M35">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42411.694821504629</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.527951386582572E-3</v>
       </c>
       <c r="C36">
@@ -7312,22 +11283,38 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H36">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="L36">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M36">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42411.694886053243</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5925000009010546E-3</v>
       </c>
       <c r="C37">
@@ -7343,22 +11330,38 @@
         <v>-2</v>
       </c>
       <c r="G37">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H37">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I37">
+        <v>-2</v>
+      </c>
+      <c r="J37">
         <v>-1</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>1</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="L37">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M37">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42411.694946203701</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6526504589128308E-3</v>
       </c>
       <c r="C38">
@@ -7373,23 +11376,39 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>-2</v>
-      </c>
-      <c r="H38">
+      <c r="G38" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38">
+        <v>-2</v>
+      </c>
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1"/>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M38">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42411.695005914349</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7123611071147025E-3</v>
       </c>
       <c r="C39">
@@ -7404,23 +11423,39 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="G39" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1"/>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M39">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42411.695065810185</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7722569429897703E-3</v>
       </c>
       <c r="C40">
@@ -7435,23 +11470,39 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>-2</v>
-      </c>
-      <c r="H40">
+      <c r="G40" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40">
+        <v>-2</v>
+      </c>
+      <c r="J40">
         <v>-1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1"/>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M40">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>42411.695125497688</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8319444463704713E-3</v>
       </c>
       <c r="C41">
@@ -7466,23 +11517,39 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="G41" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1"/>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M41">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42411.695189293983</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8957407412235625E-3</v>
       </c>
       <c r="C42">
@@ -7498,22 +11565,38 @@
         <v>-1</v>
       </c>
       <c r="G42">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H42">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="I42">
+        <v>-2</v>
+      </c>
+      <c r="J42">
+        <v>-2</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="L42">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M42">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42411.695253333331</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9597800894407555E-3</v>
       </c>
       <c r="C43">
@@ -7529,22 +11612,38 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H43">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>2</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>1</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="L43">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M43">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42411.695313263888</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0197106461855583E-3</v>
       </c>
       <c r="C44">
@@ -7559,22 +11658,38 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="G44" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>2</v>
       </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M44">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42411.695373229166</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0796759238000959E-3</v>
       </c>
       <c r="C45">
@@ -7589,22 +11704,38 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="G45" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>2</v>
       </c>
-      <c r="I45">
-        <v>0</v>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M45">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42411.695435000001</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1414467594004236E-3</v>
       </c>
       <c r="C46">
@@ -7619,22 +11750,38 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="G46" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>0</v>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M46">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42411.695495127315</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2015740725910291E-3</v>
       </c>
       <c r="C47">
@@ -7649,22 +11796,38 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="G47" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="I47">
-        <v>0</v>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M47">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42411.695561053239</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2674999965820462E-3</v>
       </c>
       <c r="C48">
@@ -7680,21 +11843,37 @@
         <v>-1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H48">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>1</v>
       </c>
+      <c r="L48">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M48">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42411.695623368054</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3298148118774407E-3</v>
       </c>
       <c r="C49">
@@ -7709,22 +11888,38 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
+      <c r="G49" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>0</v>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M49">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42411.695683171296</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3896180539159104E-3</v>
       </c>
       <c r="C50">
@@ -7739,22 +11934,38 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="G50" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H50" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>2</v>
       </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M50">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42411.695743194447</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4496412044973113E-3</v>
       </c>
       <c r="C51">
@@ -7769,22 +11980,38 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
+      <c r="G51" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>0</v>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M51">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42411.695807187498</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5136342557962053E-3</v>
       </c>
       <c r="C52">
@@ -7800,21 +12027,37 @@
         <v>-2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H52">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>2</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>1</v>
       </c>
+      <c r="L52">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M52">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42411.695871481483</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5779282407020219E-3</v>
       </c>
       <c r="C53">
@@ -7830,21 +12073,37 @@
         <v>-2</v>
       </c>
       <c r="G53">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H53">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="I53">
+        <v>-2</v>
+      </c>
+      <c r="J53">
+        <v>-2</v>
+      </c>
+      <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M53">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42411.695935995369</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6424421268748119E-3</v>
       </c>
       <c r="C54">
@@ -7860,21 +12119,37 @@
         <v>-1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H54">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>2</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42411.696000219905</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7066666627652012E-3</v>
       </c>
       <c r="C55">
@@ -7890,21 +12165,37 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H55">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>2</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M55">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42411.696060520837</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7669675948563963E-3</v>
       </c>
       <c r="C56">
@@ -7919,22 +12210,38 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
+      <c r="G56" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H56" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>2</v>
       </c>
-      <c r="I56">
-        <v>0</v>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M56">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42411.696122499998</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8289467556751333E-3</v>
       </c>
       <c r="C57">
@@ -7949,22 +12256,38 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
+      <c r="G57" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H57" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>2</v>
       </c>
-      <c r="I57">
-        <v>0</v>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M57">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42411.696182847219</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8892939774086699E-3</v>
       </c>
       <c r="C58">
@@ -7979,22 +12302,38 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
+      <c r="G58" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H58" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>0</v>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M58">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42411.696246898151</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9533449089503847E-3</v>
       </c>
       <c r="C59">
@@ -8010,21 +12349,37 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H59">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>2</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>1</v>
       </c>
+      <c r="L59">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M59">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42411.696307071761</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0135185190592892E-3</v>
       </c>
       <c r="C60">
@@ -8039,22 +12394,38 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="G60" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>0</v>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M60">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42411.696367141201</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0735879592830315E-3</v>
       </c>
       <c r="C61">
@@ -8069,22 +12440,38 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="G61" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>0</v>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M61">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42411.696427314811</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1337615693919361E-3</v>
       </c>
       <c r="C62">
@@ -8099,22 +12486,38 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="G62" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>2</v>
       </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M62">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42411.696491261573</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1977083310484886E-3</v>
       </c>
       <c r="C63">
@@ -8130,21 +12533,37 @@
         <v>-2</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="H63">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>2</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M63">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42411.696551388886</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2578356442390941E-3</v>
       </c>
       <c r="C64">
@@ -8159,22 +12578,38 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
-        <v>-2</v>
-      </c>
-      <c r="H64">
+      <c r="G64" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H64" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I64">
+        <v>-2</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M64">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42411.696611307867</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3177546249353327E-3</v>
       </c>
       <c r="C65">
@@ -8189,22 +12624,38 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
-        <v>-2</v>
-      </c>
-      <c r="H65">
+      <c r="G65" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I65">
+        <v>-2</v>
+      </c>
+      <c r="J65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M65">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42411.696671168982</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3776157399406657E-3</v>
       </c>
       <c r="C66">
@@ -8219,22 +12670,38 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>-2</v>
-      </c>
-      <c r="H66">
+      <c r="G66" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H66" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I66">
+        <v>-2</v>
+      </c>
+      <c r="J66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M66">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42411.696736319442</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4427661996451207E-3</v>
       </c>
       <c r="C67">
@@ -8250,21 +12717,37 @@
         <v>-2</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H67">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>2</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M67">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42411.696796458331</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B93" si="1">A68-A$2</f>
+        <f t="shared" ref="B68:B93" si="2">A68-A$2</f>
         <v>4.5029050888842903E-3</v>
       </c>
       <c r="C68">
@@ -8279,22 +12762,38 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>-2</v>
-      </c>
-      <c r="H68">
+      <c r="G68" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H68" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I68">
+        <v>-2</v>
+      </c>
+      <c r="J68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>0</v>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M68">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42411.69686045139</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5668981474591419E-3</v>
       </c>
       <c r="C69">
@@ -8310,21 +12809,37 @@
         <v>-2</v>
       </c>
       <c r="G69">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H69">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I69">
+        <v>-2</v>
+      </c>
+      <c r="J69">
         <v>-1</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>1</v>
       </c>
+      <c r="L69">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M69">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42411.696920613424</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6270601815194823E-3</v>
       </c>
       <c r="C70">
@@ -8339,22 +12854,38 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <v>-2</v>
-      </c>
-      <c r="H70">
+      <c r="G70" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H70" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I70">
+        <v>-2</v>
+      </c>
+      <c r="J70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M70">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42411.696980624998</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.687071756052319E-3</v>
       </c>
       <c r="C71">
@@ -8369,22 +12900,38 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>-2</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="G71" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H71" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M71">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42411.697040879626</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7473263839492574E-3</v>
       </c>
       <c r="C72">
@@ -8399,22 +12946,38 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72">
-        <v>-2</v>
-      </c>
-      <c r="H72">
+      <c r="G72" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H72" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I72">
+        <v>-2</v>
+      </c>
+      <c r="J72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M72">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42411.697104976854</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8114236124092713E-3</v>
       </c>
       <c r="C73">
@@ -8430,21 +12993,37 @@
         <v>-1</v>
       </c>
       <c r="G73">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H73">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-1</v>
       </c>
       <c r="I73">
+        <v>-2</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
         <v>1</v>
       </c>
+      <c r="L73">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M73">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42411.697164861114</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.871307872235775E-3</v>
       </c>
       <c r="C74">
@@ -8459,22 +13038,38 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74">
-        <v>-2</v>
-      </c>
-      <c r="H74">
+      <c r="G74" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H74" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I74">
+        <v>-2</v>
+      </c>
+      <c r="J74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>0</v>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M74">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>42411.697229375</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9358217584085651E-3</v>
       </c>
       <c r="C75">
@@ -8490,21 +13085,37 @@
         <v>-1</v>
       </c>
       <c r="G75">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H75">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-1</v>
       </c>
       <c r="I75">
+        <v>-2</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
         <v>1</v>
       </c>
+      <c r="L75">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M75">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>42411.697289293981</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9957407391048037E-3</v>
       </c>
       <c r="C76">
@@ -8519,22 +13130,38 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76">
-        <v>-2</v>
-      </c>
-      <c r="H76">
+      <c r="G76" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H76" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I76">
+        <v>-2</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M76">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>42411.697349270835</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0557175927679054E-3</v>
       </c>
       <c r="C77">
@@ -8549,22 +13176,38 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77">
-        <v>-2</v>
-      </c>
-      <c r="H77">
+      <c r="G77" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H77" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I77">
+        <v>-2</v>
+      </c>
+      <c r="J77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M77">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>42411.697412997688</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1194444458815269E-3</v>
       </c>
       <c r="C78">
@@ -8580,21 +13223,37 @@
         <v>-2</v>
       </c>
       <c r="G78">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H78">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I78">
+        <v>-2</v>
+      </c>
+      <c r="J78">
         <v>-1</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>1</v>
       </c>
+      <c r="L78">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M78">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>42411.697473437504</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1798842614516616E-3</v>
       </c>
       <c r="C79">
@@ -8609,22 +13268,38 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79">
-        <v>-2</v>
-      </c>
-      <c r="H79">
+      <c r="G79" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H79" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I79">
+        <v>-2</v>
+      </c>
+      <c r="J79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>0</v>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M79">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>42411.697533611114</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2400578715605661E-3</v>
       </c>
       <c r="C80">
@@ -8639,22 +13314,38 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80">
-        <v>-2</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="G80" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M80">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>42411.697593657409</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3001041669631377E-3</v>
       </c>
       <c r="C81">
@@ -8669,22 +13360,38 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81">
-        <v>-2</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="G81" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H81" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M81">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>42411.697659965277</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3664120350731537E-3</v>
       </c>
       <c r="C82">
@@ -8700,21 +13407,37 @@
         <v>-2</v>
       </c>
       <c r="G82">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H82">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I82">
+        <v>-2</v>
+      </c>
+      <c r="J82">
         <v>-1</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>1</v>
       </c>
+      <c r="L82">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M82">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>42411.697725706021</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4321527786669321E-3</v>
       </c>
       <c r="C83">
@@ -8730,21 +13453,37 @@
         <v>-2</v>
       </c>
       <c r="G83">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H83">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I83">
+        <v>-2</v>
+      </c>
+      <c r="J83">
         <v>-1</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>1</v>
       </c>
+      <c r="L83">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M83">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>42411.697789872684</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4963194415904582E-3</v>
       </c>
       <c r="C84">
@@ -8760,21 +13499,37 @@
         <v>0</v>
       </c>
       <c r="G84">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H84">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>-2</v>
+      </c>
+      <c r="J84">
         <v>-1</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>1</v>
       </c>
+      <c r="L84">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M84">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>42411.697849861113</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5563078713021241E-3</v>
       </c>
       <c r="C85">
@@ -8789,22 +13544,38 @@
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85">
-        <v>-2</v>
-      </c>
-      <c r="H85">
+      <c r="G85" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H85" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I85">
+        <v>-2</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>0</v>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M85">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>42411.697909745373</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6161921311286278E-3</v>
       </c>
       <c r="C86">
@@ -8819,22 +13590,38 @@
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86">
-        <v>-2</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
+      <c r="G86" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M86">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>42411.697974722221</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6811689792084508E-3</v>
       </c>
       <c r="C87">
@@ -8850,21 +13637,37 @@
         <v>-1</v>
       </c>
       <c r="G87">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H87">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-1</v>
       </c>
       <c r="I87">
+        <v>-2</v>
+      </c>
+      <c r="J87">
+        <v>-1</v>
+      </c>
+      <c r="K87">
         <v>1</v>
       </c>
+      <c r="L87">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M87">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>42411.698038854163</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7453009212622419E-3</v>
       </c>
       <c r="C88">
@@ -8880,21 +13683,37 @@
         <v>-2</v>
       </c>
       <c r="G88">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="H88">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I88">
+        <v>-2</v>
+      </c>
+      <c r="J88">
         <v>-1</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>1</v>
       </c>
+      <c r="L88">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M88">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>42411.698100740738</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8071874955203384E-3</v>
       </c>
       <c r="C89">
@@ -8909,22 +13728,38 @@
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89">
-        <v>-2</v>
-      </c>
-      <c r="H89">
+      <c r="G89" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I89">
+        <v>-2</v>
+      </c>
+      <c r="J89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M89">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>42411.69816497685</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8714236074592918E-3</v>
       </c>
       <c r="C90">
@@ -8940,21 +13775,37 @@
         <v>-2</v>
       </c>
       <c r="G90">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H90">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
         <v>-2</v>
       </c>
       <c r="I90">
+        <v>-2</v>
+      </c>
+      <c r="J90">
+        <v>-2</v>
+      </c>
+      <c r="K90">
         <v>1</v>
       </c>
+      <c r="L90">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M90">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>42411.698226805558</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9332523160264827E-3</v>
       </c>
       <c r="C91">
@@ -8969,22 +13820,38 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
+      <c r="G91" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" t="e">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M91">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>42411.698501064813</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2075115711195394E-3</v>
       </c>
       <c r="C92">
@@ -9000,21 +13867,37 @@
         <v>-2</v>
       </c>
       <c r="G92">
-        <v>-2</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
+        <v>-1</v>
       </c>
       <c r="H92">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
+      </c>
+      <c r="I92">
+        <v>-2</v>
+      </c>
+      <c r="J92">
         <v>-1</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>1</v>
       </c>
+      <c r="L92">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M92">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>42411.698877615738</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5840624956763349E-3</v>
       </c>
       <c r="C93">
@@ -9030,18 +13913,38 @@
         <v>-2</v>
       </c>
       <c r="G93">
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VV Read]],#N/A)</f>
         <v>-1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Used Voice]],Table1[[#This Row],[VA Read]],#N/A)</f>
+        <v>-2</v>
       </c>
       <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
         <v>1</v>
+      </c>
+      <c r="L93">
+        <f>AVERAGE(Table1[MV])</f>
+        <v>-0.91304347826086951</v>
+      </c>
+      <c r="M93">
+        <f>AVERAGE(Table1[MA])</f>
+        <v>0.95652173913043481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data_Files/Logs/10 tan - Affect Trend.xlsx
+++ b/Data_Files/Logs/10 tan - Affect Trend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>BV</t>
   </si>
@@ -160,6 +160,51 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>scared 1</t>
+  </si>
+  <si>
+    <t>scared 2</t>
+  </si>
+  <si>
+    <t>scared 3</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>happy2</t>
+  </si>
+  <si>
+    <t>hope2</t>
+  </si>
+  <si>
+    <t>sad2</t>
+  </si>
+  <si>
+    <t>fear2</t>
+  </si>
+  <si>
+    <t>anger2</t>
   </si>
 </sst>
 </file>
@@ -859,8 +904,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -1465,8 +1510,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -2073,8 +2118,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -2682,8 +2727,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -3588,8 +3633,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -4196,8 +4241,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -4804,8 +4849,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -5413,8 +5458,8 @@
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="m/d/yyyy\ h:mm:ss">
-                  <c:v>0.20729355324147036</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9930556744802743E-5</c:v>
@@ -6293,7 +6338,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6523,7 +6570,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9037,14 +9086,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+    <sheetView tabSelected="1" topLeftCell="N29" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
     <col min="31" max="31" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -9117,9 +9166,9 @@
       <c r="A2" s="2">
         <v>42411.692293553242</v>
       </c>
-      <c r="B2" s="2">
-        <f>A2-AE$2</f>
-        <v>0.20729355324147036</v>
+      <c r="B2" s="3">
+        <f>A2-A$2</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11121,7 +11170,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42411.694633460647</v>
       </c>
@@ -11168,7 +11217,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42411.694697488427</v>
       </c>
@@ -11215,7 +11264,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42411.694757476849</v>
       </c>
@@ -11262,7 +11311,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42411.694821504629</v>
       </c>
@@ -11309,7 +11358,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42411.694886053243</v>
       </c>
@@ -11355,8 +11404,26 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P37" s="1"/>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42411.694946203701</v>
       </c>
@@ -11402,8 +11469,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P38" s="1"/>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42411.695005914349</v>
       </c>
@@ -11449,8 +11528,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P39" s="1"/>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42411.695065810185</v>
       </c>
@@ -11496,8 +11587,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P40" s="1"/>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>42411.695125497688</v>
       </c>
@@ -11543,8 +11646,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P41" s="1"/>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>52</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42411.695189293983</v>
       </c>
@@ -11590,8 +11705,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P42" s="1"/>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42411.695253333331</v>
       </c>
@@ -11637,8 +11764,20 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="P43" s="1"/>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43" t="s">
+        <v>54</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42411.695313263888</v>
       </c>
@@ -11683,8 +11822,20 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="W44" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42411.695373229166</v>
       </c>
@@ -11729,8 +11880,14 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="W45" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42411.695435000001</v>
       </c>
@@ -11775,8 +11932,14 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="V46">
+        <v>9</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42411.695495127315</v>
       </c>
@@ -11821,8 +11984,14 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="V47">
+        <v>10</v>
+      </c>
+      <c r="W47" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42411.695561053239</v>
       </c>
@@ -11867,8 +12036,14 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="V48">
+        <v>11</v>
+      </c>
+      <c r="W48" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42411.695623368054</v>
       </c>
@@ -11913,8 +12088,14 @@
         <f>AVERAGE(Table1[MA])</f>
         <v>0.95652173913043481</v>
       </c>
+      <c r="V49">
+        <v>12</v>
+      </c>
+      <c r="W49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42411.695683171296</v>
       </c>
@@ -11960,7 +12141,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42411.695743194447</v>
       </c>
@@ -12006,7 +12187,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42411.695807187498</v>
       </c>
@@ -12052,7 +12233,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42411.695871481483</v>
       </c>
@@ -12098,7 +12279,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42411.695935995369</v>
       </c>
@@ -12144,7 +12325,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42411.696000219905</v>
       </c>
@@ -12190,7 +12371,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42411.696060520837</v>
       </c>
@@ -12236,7 +12417,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42411.696122499998</v>
       </c>
@@ -12282,7 +12463,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42411.696182847219</v>
       </c>
@@ -12328,7 +12509,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42411.696246898151</v>
       </c>
@@ -12374,7 +12555,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42411.696307071761</v>
       </c>
@@ -12420,7 +12601,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42411.696367141201</v>
       </c>
@@ -12466,7 +12647,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42411.696427314811</v>
       </c>
@@ -12512,7 +12693,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42411.696491261573</v>
       </c>
@@ -12558,7 +12739,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42411.696551388886</v>
       </c>
